--- a/tableraces.xlsx
+++ b/tableraces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CDA-02\Desktop\Projet\jdr2d\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6608E2DB-2718-4433-9D09-52D044297AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992E6FFD-0351-4439-9204-EE33485F129A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C4FBFA4-588B-41CA-8420-635D843FA3FC}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
